--- a/biology/Zoologie/Gymnopatagus/Gymnopatagus.xlsx
+++ b/biology/Zoologie/Gymnopatagus/Gymnopatagus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnopatagus est un genre d'oursins de la famille des Maretiidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins irréguliers, dont la large bouche filtreuse est située à l'avant de la face inférieure de l'animal, et l'anus en position terminale arrière.
-Ils se distinguent, au sein de leur famille, par leur dépression antérieure et leur fasciole péripétale[3]. 
+Ils se distinguent, au sein de leur famille, par leur dépression antérieure et leur fasciole péripétale. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (5 avril 2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (5 avril 2020) :
 Gymnopatagus magnus A. Agassiz &amp; H.L. Clark, 1907
 Gymnopatagus parvipetalus Baker &amp; Rowe, 1990
 Gymnopatagus valdiviae Döderlein, 1901
